--- a/public/spreadsheets/financials-2021-04-18.xlsx
+++ b/public/spreadsheets/financials-2021-04-18.xlsx
@@ -1715,7 +1715,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6241,6 +6241,1171 @@
       </c>
       <c r="F252" t="s">
         <v>453</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" t="s">
+        <v>5</v>
+      </c>
+      <c r="F255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>7</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>12</v>
+      </c>
+      <c r="B257" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" t="s">
+        <v>14</v>
+      </c>
+      <c r="E257" t="s">
+        <v>15</v>
+      </c>
+      <c r="F257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>17</v>
+      </c>
+      <c r="B258" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" t="s">
+        <v>18</v>
+      </c>
+      <c r="D258" t="s">
+        <v>19</v>
+      </c>
+      <c r="E258" t="s">
+        <v>20</v>
+      </c>
+      <c r="F258" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259"/>
+      <c r="C259"/>
+      <c r="D259"/>
+      <c r="E259"/>
+      <c r="F259"/>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260" t="s">
+        <v>24</v>
+      </c>
+      <c r="D260" t="s">
+        <v>25</v>
+      </c>
+      <c r="E260" t="s">
+        <v>26</v>
+      </c>
+      <c r="F260" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>28</v>
+      </c>
+      <c r="B261" t="s">
+        <v>29</v>
+      </c>
+      <c r="C261" t="s">
+        <v>29</v>
+      </c>
+      <c r="D261" t="s">
+        <v>30</v>
+      </c>
+      <c r="E261" t="s">
+        <v>31</v>
+      </c>
+      <c r="F261" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>33</v>
+      </c>
+      <c r="B262" t="s">
+        <v>34</v>
+      </c>
+      <c r="C262" t="s">
+        <v>34</v>
+      </c>
+      <c r="D262" t="s">
+        <v>35</v>
+      </c>
+      <c r="E262" t="s">
+        <v>36</v>
+      </c>
+      <c r="F262" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>38</v>
+      </c>
+      <c r="B263" t="s">
+        <v>39</v>
+      </c>
+      <c r="C263" t="s">
+        <v>39</v>
+      </c>
+      <c r="D263" t="s">
+        <v>40</v>
+      </c>
+      <c r="E263" t="s">
+        <v>41</v>
+      </c>
+      <c r="F263" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>43</v>
+      </c>
+      <c r="B264" t="s">
+        <v>44</v>
+      </c>
+      <c r="C264" t="s">
+        <v>44</v>
+      </c>
+      <c r="D264" t="s">
+        <v>45</v>
+      </c>
+      <c r="E264" t="s">
+        <v>46</v>
+      </c>
+      <c r="F264" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>48</v>
+      </c>
+      <c r="B265" t="s">
+        <v>49</v>
+      </c>
+      <c r="C265" t="s">
+        <v>49</v>
+      </c>
+      <c r="D265" t="s">
+        <v>50</v>
+      </c>
+      <c r="E265" t="s">
+        <v>51</v>
+      </c>
+      <c r="F265" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>53</v>
+      </c>
+      <c r="B266" t="s">
+        <v>54</v>
+      </c>
+      <c r="C266" t="s">
+        <v>54</v>
+      </c>
+      <c r="D266" t="s">
+        <v>55</v>
+      </c>
+      <c r="E266" t="s">
+        <v>56</v>
+      </c>
+      <c r="F266" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>58</v>
+      </c>
+      <c r="B267" t="s">
+        <v>54</v>
+      </c>
+      <c r="C267" t="s">
+        <v>54</v>
+      </c>
+      <c r="D267" t="s">
+        <v>59</v>
+      </c>
+      <c r="E267" t="s">
+        <v>60</v>
+      </c>
+      <c r="F267" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>62</v>
+      </c>
+      <c r="B268" t="s">
+        <v>54</v>
+      </c>
+      <c r="C268" t="s">
+        <v>54</v>
+      </c>
+      <c r="D268" t="s">
+        <v>59</v>
+      </c>
+      <c r="E268" t="s">
+        <v>60</v>
+      </c>
+      <c r="F268" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>63</v>
+      </c>
+      <c r="B269" t="s">
+        <v>64</v>
+      </c>
+      <c r="C269" t="s">
+        <v>64</v>
+      </c>
+      <c r="D269">
+        <v>8.96</v>
+      </c>
+      <c r="E269">
+        <v>6.87</v>
+      </c>
+      <c r="F269">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>65</v>
+      </c>
+      <c r="B270" t="s">
+        <v>64</v>
+      </c>
+      <c r="C270" t="s">
+        <v>64</v>
+      </c>
+      <c r="D270">
+        <v>8.96</v>
+      </c>
+      <c r="E270">
+        <v>6.87</v>
+      </c>
+      <c r="F270">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>66</v>
+      </c>
+      <c r="B271" t="s">
+        <v>64</v>
+      </c>
+      <c r="C271" t="s">
+        <v>64</v>
+      </c>
+      <c r="D271" t="s">
+        <v>67</v>
+      </c>
+      <c r="E271" t="s">
+        <v>67</v>
+      </c>
+      <c r="F271" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>68</v>
+      </c>
+      <c r="B272" t="s">
+        <v>64</v>
+      </c>
+      <c r="C272" t="s">
+        <v>64</v>
+      </c>
+      <c r="D272" t="s">
+        <v>67</v>
+      </c>
+      <c r="E272" t="s">
+        <v>67</v>
+      </c>
+      <c r="F272" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>69</v>
+      </c>
+      <c r="B273" t="s">
+        <v>64</v>
+      </c>
+      <c r="C273" t="s">
+        <v>70</v>
+      </c>
+      <c r="D273" t="s">
+        <v>71</v>
+      </c>
+      <c r="E273" t="s">
+        <v>72</v>
+      </c>
+      <c r="F273" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="s">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>75</v>
+      </c>
+      <c r="D276" t="s">
+        <v>76</v>
+      </c>
+      <c r="E276" t="s">
+        <v>77</v>
+      </c>
+      <c r="F276" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="s">
+        <v>7</v>
+      </c>
+      <c r="B277" t="s">
+        <v>79</v>
+      </c>
+      <c r="C277" t="s">
+        <v>80</v>
+      </c>
+      <c r="D277" t="s">
+        <v>81</v>
+      </c>
+      <c r="E277" t="s">
+        <v>82</v>
+      </c>
+      <c r="F277" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278" t="s">
+        <v>84</v>
+      </c>
+      <c r="C278" t="s">
+        <v>85</v>
+      </c>
+      <c r="D278" t="s">
+        <v>86</v>
+      </c>
+      <c r="E278" t="s">
+        <v>87</v>
+      </c>
+      <c r="F278" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="s">
+        <v>17</v>
+      </c>
+      <c r="B279" t="s">
+        <v>89</v>
+      </c>
+      <c r="C279" t="s">
+        <v>90</v>
+      </c>
+      <c r="D279" t="s">
+        <v>91</v>
+      </c>
+      <c r="E279" t="s">
+        <v>92</v>
+      </c>
+      <c r="F279" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280"/>
+      <c r="C280"/>
+      <c r="D280"/>
+      <c r="E280"/>
+      <c r="F280"/>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="s">
+        <v>94</v>
+      </c>
+      <c r="B281" t="s">
+        <v>95</v>
+      </c>
+      <c r="C281" t="s">
+        <v>96</v>
+      </c>
+      <c r="D281" t="s">
+        <v>97</v>
+      </c>
+      <c r="E281" t="s">
+        <v>98</v>
+      </c>
+      <c r="F281" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" t="s">
+        <v>100</v>
+      </c>
+      <c r="C282" t="s">
+        <v>101</v>
+      </c>
+      <c r="D282" t="s">
+        <v>102</v>
+      </c>
+      <c r="E282" t="s">
+        <v>103</v>
+      </c>
+      <c r="F282" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>28</v>
+      </c>
+      <c r="B283" t="s">
+        <v>105</v>
+      </c>
+      <c r="C283" t="s">
+        <v>106</v>
+      </c>
+      <c r="D283" t="s">
+        <v>107</v>
+      </c>
+      <c r="E283" t="s">
+        <v>108</v>
+      </c>
+      <c r="F283" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>33</v>
+      </c>
+      <c r="B284" t="s">
+        <v>110</v>
+      </c>
+      <c r="C284" t="s">
+        <v>111</v>
+      </c>
+      <c r="D284" t="s">
+        <v>112</v>
+      </c>
+      <c r="E284" t="s">
+        <v>113</v>
+      </c>
+      <c r="F284" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="s">
+        <v>38</v>
+      </c>
+      <c r="B285" t="s">
+        <v>115</v>
+      </c>
+      <c r="C285" t="s">
+        <v>116</v>
+      </c>
+      <c r="D285" t="s">
+        <v>117</v>
+      </c>
+      <c r="E285" t="s">
+        <v>118</v>
+      </c>
+      <c r="F285" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="s">
+        <v>120</v>
+      </c>
+      <c r="B286" t="s">
+        <v>121</v>
+      </c>
+      <c r="C286" t="s">
+        <v>122</v>
+      </c>
+      <c r="D286" t="s">
+        <v>123</v>
+      </c>
+      <c r="E286" t="s">
+        <v>124</v>
+      </c>
+      <c r="F286" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="s">
+        <v>43</v>
+      </c>
+      <c r="B287" t="s">
+        <v>126</v>
+      </c>
+      <c r="C287" t="s">
+        <v>127</v>
+      </c>
+      <c r="D287" t="s">
+        <v>128</v>
+      </c>
+      <c r="E287" t="s">
+        <v>129</v>
+      </c>
+      <c r="F287" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="s">
+        <v>48</v>
+      </c>
+      <c r="B288" t="s">
+        <v>131</v>
+      </c>
+      <c r="C288" t="s">
+        <v>132</v>
+      </c>
+      <c r="D288" t="s">
+        <v>133</v>
+      </c>
+      <c r="E288" t="s">
+        <v>134</v>
+      </c>
+      <c r="F288" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="s">
+        <v>53</v>
+      </c>
+      <c r="B289" t="s">
+        <v>136</v>
+      </c>
+      <c r="C289" t="s">
+        <v>137</v>
+      </c>
+      <c r="D289" t="s">
+        <v>138</v>
+      </c>
+      <c r="E289" t="s">
+        <v>139</v>
+      </c>
+      <c r="F289" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="s">
+        <v>58</v>
+      </c>
+      <c r="B290" t="s">
+        <v>136</v>
+      </c>
+      <c r="C290" t="s">
+        <v>137</v>
+      </c>
+      <c r="D290" t="s">
+        <v>138</v>
+      </c>
+      <c r="E290" t="s">
+        <v>139</v>
+      </c>
+      <c r="F290" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="s">
+        <v>62</v>
+      </c>
+      <c r="B291" t="s">
+        <v>136</v>
+      </c>
+      <c r="C291" t="s">
+        <v>137</v>
+      </c>
+      <c r="D291" t="s">
+        <v>138</v>
+      </c>
+      <c r="E291" t="s">
+        <v>139</v>
+      </c>
+      <c r="F291" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="s">
+        <v>63</v>
+      </c>
+      <c r="B292" t="s">
+        <v>64</v>
+      </c>
+      <c r="C292">
+        <v>13.25</v>
+      </c>
+      <c r="D292">
+        <v>13.15</v>
+      </c>
+      <c r="E292">
+        <v>0.1</v>
+      </c>
+      <c r="F292">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="s">
+        <v>65</v>
+      </c>
+      <c r="B293" t="s">
+        <v>64</v>
+      </c>
+      <c r="C293">
+        <v>13.2</v>
+      </c>
+      <c r="D293">
+        <v>13.05</v>
+      </c>
+      <c r="E293">
+        <v>0.1</v>
+      </c>
+      <c r="F293">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="s">
+        <v>66</v>
+      </c>
+      <c r="B294" t="s">
+        <v>64</v>
+      </c>
+      <c r="C294" t="s">
+        <v>141</v>
+      </c>
+      <c r="D294" t="s">
+        <v>142</v>
+      </c>
+      <c r="E294" t="s">
+        <v>143</v>
+      </c>
+      <c r="F294" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="s">
+        <v>68</v>
+      </c>
+      <c r="B295" t="s">
+        <v>64</v>
+      </c>
+      <c r="C295" t="s">
+        <v>145</v>
+      </c>
+      <c r="D295" t="s">
+        <v>146</v>
+      </c>
+      <c r="E295" t="s">
+        <v>147</v>
+      </c>
+      <c r="F295" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>69</v>
+      </c>
+      <c r="B296" t="s">
+        <v>64</v>
+      </c>
+      <c r="C296" t="s">
+        <v>149</v>
+      </c>
+      <c r="D296" t="s">
+        <v>150</v>
+      </c>
+      <c r="E296" t="s">
+        <v>151</v>
+      </c>
+      <c r="F296" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="s">
+        <v>1</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2</v>
+      </c>
+      <c r="C299" t="s">
+        <v>3</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
+      </c>
+      <c r="E299" t="s">
+        <v>5</v>
+      </c>
+      <c r="F299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="s">
+        <v>7</v>
+      </c>
+      <c r="B300" t="s">
+        <v>154</v>
+      </c>
+      <c r="C300" t="s">
+        <v>154</v>
+      </c>
+      <c r="D300" t="s">
+        <v>155</v>
+      </c>
+      <c r="E300" t="s">
+        <v>156</v>
+      </c>
+      <c r="F300" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="s">
+        <v>12</v>
+      </c>
+      <c r="B301" t="s">
+        <v>158</v>
+      </c>
+      <c r="C301" t="s">
+        <v>158</v>
+      </c>
+      <c r="D301" t="s">
+        <v>159</v>
+      </c>
+      <c r="E301" t="s">
+        <v>160</v>
+      </c>
+      <c r="F301" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="s">
+        <v>17</v>
+      </c>
+      <c r="B302" t="s">
+        <v>162</v>
+      </c>
+      <c r="C302" t="s">
+        <v>162</v>
+      </c>
+      <c r="D302" t="s">
+        <v>163</v>
+      </c>
+      <c r="E302" t="s">
+        <v>164</v>
+      </c>
+      <c r="F302" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="s">
+        <v>22</v>
+      </c>
+      <c r="B303"/>
+      <c r="C303"/>
+      <c r="D303"/>
+      <c r="E303"/>
+      <c r="F303"/>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" t="s">
+        <v>166</v>
+      </c>
+      <c r="C304" t="s">
+        <v>166</v>
+      </c>
+      <c r="D304" t="s">
+        <v>167</v>
+      </c>
+      <c r="E304" t="s">
+        <v>168</v>
+      </c>
+      <c r="F304" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>28</v>
+      </c>
+      <c r="B305" t="s">
+        <v>170</v>
+      </c>
+      <c r="C305" t="s">
+        <v>170</v>
+      </c>
+      <c r="D305" t="s">
+        <v>171</v>
+      </c>
+      <c r="E305" t="s">
+        <v>172</v>
+      </c>
+      <c r="F305" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>33</v>
+      </c>
+      <c r="B306" t="s">
+        <v>174</v>
+      </c>
+      <c r="C306" t="s">
+        <v>174</v>
+      </c>
+      <c r="D306" t="s">
+        <v>175</v>
+      </c>
+      <c r="E306" t="s">
+        <v>176</v>
+      </c>
+      <c r="F306" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>38</v>
+      </c>
+      <c r="B307" t="s">
+        <v>178</v>
+      </c>
+      <c r="C307" t="s">
+        <v>178</v>
+      </c>
+      <c r="D307" t="s">
+        <v>179</v>
+      </c>
+      <c r="E307" t="s">
+        <v>180</v>
+      </c>
+      <c r="F307" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>43</v>
+      </c>
+      <c r="B308" t="s">
+        <v>182</v>
+      </c>
+      <c r="C308" t="s">
+        <v>182</v>
+      </c>
+      <c r="D308" t="s">
+        <v>183</v>
+      </c>
+      <c r="E308" t="s">
+        <v>184</v>
+      </c>
+      <c r="F308" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>48</v>
+      </c>
+      <c r="B309" t="s">
+        <v>186</v>
+      </c>
+      <c r="C309" t="s">
+        <v>186</v>
+      </c>
+      <c r="D309" t="s">
+        <v>187</v>
+      </c>
+      <c r="E309" t="s">
+        <v>188</v>
+      </c>
+      <c r="F309" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>53</v>
+      </c>
+      <c r="B310" t="s">
+        <v>190</v>
+      </c>
+      <c r="C310" t="s">
+        <v>190</v>
+      </c>
+      <c r="D310" t="s">
+        <v>191</v>
+      </c>
+      <c r="E310" t="s">
+        <v>192</v>
+      </c>
+      <c r="F310" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>58</v>
+      </c>
+      <c r="B311" t="s">
+        <v>194</v>
+      </c>
+      <c r="C311" t="s">
+        <v>194</v>
+      </c>
+      <c r="D311" t="s">
+        <v>195</v>
+      </c>
+      <c r="E311" t="s">
+        <v>196</v>
+      </c>
+      <c r="F311" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>62</v>
+      </c>
+      <c r="B312" t="s">
+        <v>194</v>
+      </c>
+      <c r="C312" t="s">
+        <v>194</v>
+      </c>
+      <c r="D312" t="s">
+        <v>195</v>
+      </c>
+      <c r="E312" t="s">
+        <v>196</v>
+      </c>
+      <c r="F312" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>63</v>
+      </c>
+      <c r="B313" t="s">
+        <v>64</v>
+      </c>
+      <c r="C313" t="s">
+        <v>64</v>
+      </c>
+      <c r="D313">
+        <v>0.39</v>
+      </c>
+      <c r="E313">
+        <v>0.46</v>
+      </c>
+      <c r="F313">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>65</v>
+      </c>
+      <c r="B314" t="s">
+        <v>64</v>
+      </c>
+      <c r="C314" t="s">
+        <v>64</v>
+      </c>
+      <c r="D314">
+        <v>0.39</v>
+      </c>
+      <c r="E314">
+        <v>0.46</v>
+      </c>
+      <c r="F314">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>66</v>
+      </c>
+      <c r="B315" t="s">
+        <v>64</v>
+      </c>
+      <c r="C315" t="s">
+        <v>64</v>
+      </c>
+      <c r="D315" t="s">
+        <v>198</v>
+      </c>
+      <c r="E315" t="s">
+        <v>199</v>
+      </c>
+      <c r="F315" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>68</v>
+      </c>
+      <c r="B316" t="s">
+        <v>64</v>
+      </c>
+      <c r="C316" t="s">
+        <v>64</v>
+      </c>
+      <c r="D316" t="s">
+        <v>198</v>
+      </c>
+      <c r="E316" t="s">
+        <v>199</v>
+      </c>
+      <c r="F316" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>69</v>
+      </c>
+      <c r="B317" t="s">
+        <v>64</v>
+      </c>
+      <c r="C317" t="s">
+        <v>201</v>
+      </c>
+      <c r="D317" t="s">
+        <v>202</v>
+      </c>
+      <c r="E317" t="s">
+        <v>203</v>
+      </c>
+      <c r="F317" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
